--- a/data/trans_dic/PCS12_SP_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02746059620255015</v>
+        <v>0.0277185452346933</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02130155314501276</v>
+        <v>0.02059318743996559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007242411609001469</v>
+        <v>0.007132742177907816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003591971838776961</v>
+        <v>0.003663725529239542</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03619463710105391</v>
+        <v>0.03687737324174997</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04538283819442947</v>
+        <v>0.04496411759263765</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02899622186071144</v>
+        <v>0.02861310181726634</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03832975309624939</v>
+        <v>0.03866618788660214</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03623428559292692</v>
+        <v>0.0361237653764725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03723819629774526</v>
+        <v>0.03860208172315319</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02158315186588096</v>
+        <v>0.02263062612870034</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0231378749642892</v>
+        <v>0.02135407438906123</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0646831911077617</v>
+        <v>0.06469218711207243</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05611535168513104</v>
+        <v>0.05602995562255623</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03782281025349707</v>
+        <v>0.03660608547287339</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04427416367132869</v>
+        <v>0.04254096760385696</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0783237730565343</v>
+        <v>0.07719983607554166</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09761260516096146</v>
+        <v>0.09460389621412518</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06820514131273153</v>
+        <v>0.06957345542773014</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1205835451844307</v>
+        <v>0.1200352230676914</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.063356645313198</v>
+        <v>0.06372640983982565</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06583487923263855</v>
+        <v>0.06781095083776435</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04699495207450253</v>
+        <v>0.04797078930567027</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06852759435538053</v>
+        <v>0.06697965344773604</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02823963426815179</v>
+        <v>0.02797663209254038</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0471193298021649</v>
+        <v>0.04549242171705044</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03233546397824066</v>
+        <v>0.03247194654627308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06880849651038157</v>
+        <v>0.06721969530869849</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07275959647231166</v>
+        <v>0.07098109043468141</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05141219145730767</v>
+        <v>0.05145777692524636</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0496773370270013</v>
+        <v>0.04869453811204319</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05348045365309755</v>
+        <v>0.05113471347094397</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05261903626787658</v>
+        <v>0.05322442996962422</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05293600116685844</v>
+        <v>0.05345911100326859</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04529828212940696</v>
+        <v>0.04548708882435477</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06756662277915158</v>
+        <v>0.06513213848222422</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06158106444860827</v>
+        <v>0.06091527653553412</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08599946679499473</v>
+        <v>0.0853781696091884</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06865379498725493</v>
+        <v>0.07122221309330527</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1366309341613892</v>
+        <v>0.1357329345026126</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1193384309131433</v>
+        <v>0.1173594964209262</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09122394339539927</v>
+        <v>0.09355940778134421</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09319663203503865</v>
+        <v>0.09157257053493553</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09984931995943225</v>
+        <v>0.09849739480271269</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08006000514428462</v>
+        <v>0.08052593948969475</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08202024063820441</v>
+        <v>0.08151930242779533</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07349641511857338</v>
+        <v>0.07485880187486067</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1068970059765661</v>
+        <v>0.1058590830445441</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07374435466276885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1105241009265525</v>
+        <v>0.1105241009265524</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1380133030459257</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04934833422372471</v>
+        <v>0.0509209582325834</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07102977665329649</v>
+        <v>0.07140144430829225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05544775809296987</v>
+        <v>0.0548726898392702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08574514503991421</v>
+        <v>0.08583815970523341</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1133877687390563</v>
+        <v>0.1122578254393196</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1234479658643772</v>
+        <v>0.1243316332453408</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08126758743226063</v>
+        <v>0.0830565218926133</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1272448984680523</v>
+        <v>0.1258893036387739</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08967801462730352</v>
+        <v>0.08761107946060936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1044816381209104</v>
+        <v>0.1026586288082967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07245074470431208</v>
+        <v>0.07214531069051786</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.11249584517493</v>
+        <v>0.1126895899366152</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08943712546031271</v>
+        <v>0.08988974240266341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1156528110539734</v>
+        <v>0.1166714461491278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09461498713412385</v>
+        <v>0.09608491813490933</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1377310432795993</v>
+        <v>0.1405182365920076</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.165059832076741</v>
+        <v>0.1646528543168811</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1784541099585029</v>
+        <v>0.1797455229601491</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1285895388195237</v>
+        <v>0.1273788922861907</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1737623965003822</v>
+        <v>0.1730467526339855</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.12258488925766</v>
+        <v>0.1219030626867057</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.138884054198432</v>
+        <v>0.1406756442889544</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1045823017691496</v>
+        <v>0.1045579654700298</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1474795644220878</v>
+        <v>0.1485652773883923</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08642322489659018</v>
+        <v>0.08493808118107331</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1031064547093055</v>
+        <v>0.1041254932752028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1193595209245907</v>
+        <v>0.1239679648248087</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1693888776728699</v>
+        <v>0.1678330879303546</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2070865829618436</v>
+        <v>0.2055581376083326</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1650846652575751</v>
+        <v>0.1662065333572502</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1598689146367862</v>
+        <v>0.157921135732493</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2201080857240174</v>
+        <v>0.2176968584221697</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1538977196243954</v>
+        <v>0.1535106737590997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.143623519064511</v>
+        <v>0.1427788677298919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1494740936939908</v>
+        <v>0.1486988982424599</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2004634685125173</v>
+        <v>0.1991797779645993</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1443188498570055</v>
+        <v>0.1422132908190746</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1621584140869054</v>
+        <v>0.1591994739771882</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1813246944214915</v>
+        <v>0.1838393583385073</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.231541214666062</v>
+        <v>0.2314394326792555</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.285131537811996</v>
+        <v>0.27982861806315</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2342472842004743</v>
+        <v>0.2349816218274189</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2223960495634415</v>
+        <v>0.2220320495055347</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2688202338628712</v>
+        <v>0.268593554992331</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2015837700414595</v>
+        <v>0.201656836102857</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1875088886089001</v>
+        <v>0.1854962106803016</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1923071219976566</v>
+        <v>0.1927280970551631</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2415669252101419</v>
+        <v>0.2399073515639713</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3029056264221788</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3403769111386912</v>
+        <v>0.3403769111386913</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2437944242817812</v>
+        <v>0.2393196601619639</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1959265983786835</v>
+        <v>0.1981093180570529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2017045350653137</v>
+        <v>0.201700310029286</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2670379975061122</v>
+        <v>0.2676959777474995</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2909922745283388</v>
+        <v>0.2843470074173834</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3923012798305803</v>
+        <v>0.3899496638908097</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3146277464344129</v>
+        <v>0.3233817238960787</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3469297050374502</v>
+        <v>0.3480632057827774</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.279313667494254</v>
+        <v>0.27906423422056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3044793713161098</v>
+        <v>0.3055225387523209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2743058809952235</v>
+        <v>0.2726090429697973</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3162923569455129</v>
+        <v>0.3168976905836783</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3325130751181005</v>
+        <v>0.3297494543984987</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2808088579519279</v>
+        <v>0.2820653564050484</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2836714249372817</v>
+        <v>0.2831156636881148</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3417020563414845</v>
+        <v>0.3397980496635015</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3828303431304271</v>
+        <v>0.3824721582407404</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4866796834319395</v>
+        <v>0.4886766435041998</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4141544761409282</v>
+        <v>0.4138961902354241</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.408450855648354</v>
+        <v>0.4084847402379633</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3457312386322161</v>
+        <v>0.3443274141387965</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3722322359396523</v>
+        <v>0.3722449839668696</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3351886010173294</v>
+        <v>0.3362796594350713</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3655857005816188</v>
+        <v>0.3645618519611189</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3270244517145784</v>
+        <v>0.3294219313189857</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3669406390508559</v>
+        <v>0.3753276306982016</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2825622896167344</v>
+        <v>0.2830423024638943</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2751887667538258</v>
+        <v>0.2804264020999483</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.566074613687001</v>
+        <v>0.5589016134230824</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5608102140924428</v>
+        <v>0.5603898754101218</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4761643874746428</v>
+        <v>0.466089203834019</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4439166836268788</v>
+        <v>0.4432545877622524</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.460941934882645</v>
+        <v>0.4671519062561953</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4792612353498542</v>
+        <v>0.4858380143330371</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3961495231727605</v>
+        <v>0.4002356508304151</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3716894649198157</v>
+        <v>0.3744617164376148</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.432812064690764</v>
+        <v>0.4390920215302994</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4869038909295472</v>
+        <v>0.4920549880676477</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3915501378233262</v>
+        <v>0.3880565200592108</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3526814123710594</v>
+        <v>0.3556396142918913</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6650308310098855</v>
+        <v>0.6576021263397627</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6672623638380947</v>
+        <v>0.6638798049626682</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.576135392478107</v>
+        <v>0.576442360317186</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5135709485269736</v>
+        <v>0.5110290040383935</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5402338890643706</v>
+        <v>0.5427334798875387</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5663404451053964</v>
+        <v>0.5681534570679108</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4737668148433634</v>
+        <v>0.4745731213375726</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4257229705055056</v>
+        <v>0.4269685019607951</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5955492921109001</v>
+        <v>0.6020544949049845</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6356794525381343</v>
+        <v>0.6364577509996403</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5571130707903892</v>
+        <v>0.5589442887317336</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5241337836349813</v>
+        <v>0.5223351277943439</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.758013476951554</v>
+        <v>0.7617179181371184</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7963837691472907</v>
+        <v>0.7929330261514392</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.696393128249397</v>
+        <v>0.6997874461489818</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7535867721724304</v>
+        <v>0.7530043712499087</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7177070409588244</v>
+        <v>0.7187786666472199</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7407379689563227</v>
+        <v>0.7470613193896239</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6620341745471175</v>
+        <v>0.6594292363452914</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.671495641329796</v>
+        <v>0.6702735809281627</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7283265676848231</v>
+        <v>0.7275848563286538</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7615598188056257</v>
+        <v>0.7629996889883763</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6681269719694359</v>
+        <v>0.6735160973154983</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6176446543633464</v>
+        <v>0.6176673288472334</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8520859209548466</v>
+        <v>0.8496865733986388</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8691106395756383</v>
+        <v>0.8718939392591698</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7956409805331877</v>
+        <v>0.796971057588548</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8101212967575825</v>
+        <v>0.81082365804238</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7914518200060499</v>
+        <v>0.7903535548379279</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.812571884506334</v>
+        <v>0.8171815657516813</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7325783093687669</v>
+        <v>0.7361155918316288</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7237268947331533</v>
+        <v>0.7230572452438929</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.14551860692494</v>
+        <v>0.1449027459305638</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1654509730096534</v>
+        <v>0.1654130903929628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1544024319498621</v>
+        <v>0.1542445487510044</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1990318071176179</v>
+        <v>0.1967285362591533</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2571933473444453</v>
+        <v>0.2573566118516696</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2765191303811136</v>
+        <v>0.2744258855450559</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2468770966135048</v>
+        <v>0.2451047123067584</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2894554468143383</v>
+        <v>0.2913950628832184</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2062426678123697</v>
+        <v>0.2058033824492898</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2262508016619111</v>
+        <v>0.2255210754517412</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2050138658982271</v>
+        <v>0.2054304182217138</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2500471021111381</v>
+        <v>0.2490728787982831</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1711110876187533</v>
+        <v>0.170920721330434</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.193158831063228</v>
+        <v>0.1923500774824448</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1796943019349646</v>
+        <v>0.1798218473448686</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2252175043496672</v>
+        <v>0.2240401249399002</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2871450819736884</v>
+        <v>0.2872776276898303</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3093040485501006</v>
+        <v>0.3072859052383654</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2769123722900101</v>
+        <v>0.2772737755479987</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3148996357325343</v>
+        <v>0.3174012607880579</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2268179905756705</v>
+        <v>0.2257335608490749</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2470938181796452</v>
+        <v>0.2464991596612895</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.225768547184199</v>
+        <v>0.2248827002589991</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2681461463154242</v>
+        <v>0.2684629070603896</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13567</v>
+        <v>13695</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9674</v>
+        <v>9352</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3038</v>
+        <v>2992</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1465</v>
+        <v>1494</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16921</v>
+        <v>17240</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19525</v>
+        <v>19345</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11475</v>
+        <v>11324</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13838</v>
+        <v>13959</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>34841</v>
+        <v>34735</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>32933</v>
+        <v>34139</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17595</v>
+        <v>18449</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>17789</v>
+        <v>16417</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31958</v>
+        <v>31962</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25485</v>
+        <v>25446</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15865</v>
+        <v>15355</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18055</v>
+        <v>17348</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36616</v>
+        <v>36090</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>41996</v>
+        <v>40701</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26993</v>
+        <v>27534</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43532</v>
+        <v>43335</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>60921</v>
+        <v>61276</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>58223</v>
+        <v>59970</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>38311</v>
+        <v>39107</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>52685</v>
+        <v>51495</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20770</v>
+        <v>20577</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>32375</v>
+        <v>31257</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19094</v>
+        <v>19175</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>32814</v>
+        <v>32056</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45511</v>
+        <v>44398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31375</v>
+        <v>31402</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27995</v>
+        <v>27442</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26767</v>
+        <v>25593</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>71614</v>
+        <v>72437</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>68676</v>
+        <v>69355</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>52276</v>
+        <v>52494</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>66039</v>
+        <v>63660</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45292</v>
+        <v>44803</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>59089</v>
+        <v>58662</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40540</v>
+        <v>42056</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>65158</v>
+        <v>64730</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>74645</v>
+        <v>73408</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>55670</v>
+        <v>57095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>52520</v>
+        <v>51605</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>49975</v>
+        <v>49298</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>108960</v>
+        <v>109594</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>106408</v>
+        <v>105758</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>84818</v>
+        <v>86390</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>104480</v>
+        <v>103466</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31517</v>
+        <v>32522</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>48433</v>
+        <v>48686</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37100</v>
+        <v>36715</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>53149</v>
+        <v>53207</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>78209</v>
+        <v>77429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>87753</v>
+        <v>88381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>53749</v>
+        <v>54932</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>79065</v>
+        <v>78222</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>119129</v>
+        <v>116384</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>145513</v>
+        <v>142974</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>96394</v>
+        <v>95988</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>139631</v>
+        <v>139871</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57121</v>
+        <v>57410</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>78859</v>
+        <v>79554</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63307</v>
+        <v>64290</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>85372</v>
+        <v>87100</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>113849</v>
+        <v>113568</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>126854</v>
+        <v>127772</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>85047</v>
+        <v>84247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>107969</v>
+        <v>107524</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>162843</v>
+        <v>161937</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>193425</v>
+        <v>195921</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>139145</v>
+        <v>139113</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>183053</v>
+        <v>184400</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44866</v>
+        <v>44095</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>63371</v>
+        <v>63997</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>77112</v>
+        <v>80089</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>118332</v>
+        <v>117245</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>106783</v>
+        <v>105994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>101725</v>
+        <v>102416</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>103767</v>
+        <v>102503</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>161382</v>
+        <v>159614</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>159252</v>
+        <v>158851</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>176774</v>
+        <v>175735</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>193588</v>
+        <v>192584</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>287019</v>
+        <v>285181</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>74923</v>
+        <v>73830</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>99665</v>
+        <v>97847</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>117144</v>
+        <v>118769</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>161750</v>
+        <v>161679</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>147026</v>
+        <v>144291</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>144343</v>
+        <v>144795</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>144352</v>
+        <v>144116</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>197098</v>
+        <v>196932</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>208597</v>
+        <v>208672</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>230789</v>
+        <v>228312</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>249062</v>
+        <v>249607</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>345869</v>
+        <v>343493</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>94278</v>
+        <v>92547</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>84137</v>
+        <v>85074</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>96398</v>
+        <v>96396</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>160834</v>
+        <v>161231</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>117557</v>
+        <v>114872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>175673</v>
+        <v>174619</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>156322</v>
+        <v>160672</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>210408</v>
+        <v>211095</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>220852</v>
+        <v>220655</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>267098</v>
+        <v>268013</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>267384</v>
+        <v>265730</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>382326</v>
+        <v>383058</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>128586</v>
+        <v>127517</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>120587</v>
+        <v>121127</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>135572</v>
+        <v>135306</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>205804</v>
+        <v>204657</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>154658</v>
+        <v>154513</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>217935</v>
+        <v>218829</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>205772</v>
+        <v>205644</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>247719</v>
+        <v>247740</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>273368</v>
+        <v>272258</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>326533</v>
+        <v>326544</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>326731</v>
+        <v>327794</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>441911</v>
+        <v>440673</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>95682</v>
+        <v>96383</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>113673</v>
+        <v>116271</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>94469</v>
+        <v>94630</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>110651</v>
+        <v>112757</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>194126</v>
+        <v>191666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>198525</v>
+        <v>198376</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>179877</v>
+        <v>176071</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>194103</v>
+        <v>193813</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>292936</v>
+        <v>296883</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>318125</v>
+        <v>322491</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>282095</v>
+        <v>285005</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>311975</v>
+        <v>314301</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>126633</v>
+        <v>128471</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>150836</v>
+        <v>152432</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>130907</v>
+        <v>129739</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>141810</v>
+        <v>143000</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>228062</v>
+        <v>225514</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>236208</v>
+        <v>235011</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>217642</v>
+        <v>217758</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>224559</v>
+        <v>223447</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>343328</v>
+        <v>344916</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>375927</v>
+        <v>377130</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>337366</v>
+        <v>337940</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>357327</v>
+        <v>358373</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>124996</v>
+        <v>126361</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>158825</v>
+        <v>159020</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>143177</v>
+        <v>143648</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>161228</v>
+        <v>160675</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>253107</v>
+        <v>254344</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>309777</v>
+        <v>308434</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>278675</v>
+        <v>280033</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>343499</v>
+        <v>343234</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>390283</v>
+        <v>390865</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>473206</v>
+        <v>477245</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>435067</v>
+        <v>433355</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>512639</v>
+        <v>511706</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>152863</v>
+        <v>152708</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>190276</v>
+        <v>190636</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>171707</v>
+        <v>173092</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>189993</v>
+        <v>190000</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>284518</v>
+        <v>283717</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>338066</v>
+        <v>339148</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>318391</v>
+        <v>318923</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>369269</v>
+        <v>369589</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>430384</v>
+        <v>429787</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>519095</v>
+        <v>522040</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>481426</v>
+        <v>483751</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>552513</v>
+        <v>552002</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>476798</v>
+        <v>474780</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>566964</v>
+        <v>566834</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>524096</v>
+        <v>523560</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>699617</v>
+        <v>691521</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>869107</v>
+        <v>869659</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>983941</v>
+        <v>976492</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>875066</v>
+        <v>868784</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1075508</v>
+        <v>1082715</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1372698</v>
+        <v>1369774</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1580382</v>
+        <v>1575285</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1422569</v>
+        <v>1425459</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1808023</v>
+        <v>1800979</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>560653</v>
+        <v>560029</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>661913</v>
+        <v>659141</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>609945</v>
+        <v>610378</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>791663</v>
+        <v>787524</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>970320</v>
+        <v>970768</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1100599</v>
+        <v>1093418</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>981528</v>
+        <v>982809</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1170050</v>
+        <v>1179345</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1509642</v>
+        <v>1502424</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1725972</v>
+        <v>1721818</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1566584</v>
+        <v>1560437</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1938892</v>
+        <v>1941183</v>
       </c>
     </row>
     <row r="36">
